--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A3D98-F45F-430E-8F82-FF0151D29991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3C3FA7-E928-498B-A79F-742F24C686F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,9 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +464,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,31 +539,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3C3FA7-E928-498B-A79F-742F24C686F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA10CA9-0722-480F-8F59-E831EC354050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weaponList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpConsume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝量消耗值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,26 +473,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +521,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -537,8 +553,11 @@
       <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -566,8 +585,11 @@
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -594,6 +616,9 @@
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA10CA9-0722-480F-8F59-E831EC354050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988994E-DC5B-4D20-9F37-30A5A74B6F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weaponList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weaponUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>launchInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发射间隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +96,6 @@
   </si>
   <si>
     <t>一把破旧的短枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon/weapon_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,27 +461,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,105 +506,93 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="D4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988994E-DC5B-4D20-9F37-30A5A74B6F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C9DB4-9713-4F99-9F9E-CBDE8D7E4E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>蓝量消耗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹偏移度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,10 +485,11 @@
     <col min="7" max="7" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +517,11 @@
       <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -537,8 +549,11 @@
       <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -566,8 +581,11 @@
       <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -587,13 +605,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C9DB4-9713-4F99-9F9E-CBDE8D7E4E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC274F87-E03C-498E-BE2D-FF6C801DF12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,7 +599,7 @@
         <v>0.3</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC274F87-E03C-498E-BE2D-FF6C801DF12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055CCFF-9C97-4C92-9F9B-A1A7632B7439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>子弹偏移度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,6 +621,38 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055CCFF-9C97-4C92-9F9B-A1A7632B7439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EB7E6D-74CD-41E3-95A4-BEEDCE14B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>狙击枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后坐力作用距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recoilForceDis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,11 +497,12 @@
     <col min="7" max="7" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +533,11 @@
       <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -556,8 +568,11 @@
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -588,8 +603,11 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -620,8 +638,11 @@
       <c r="J4" s="1">
         <v>5</v>
       </c>
+      <c r="K4" s="1">
+        <v>1.2E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -641,16 +662,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EB7E6D-74CD-41E3-95A4-BEEDCE14B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB97ED-F8EA-407A-BD63-80CFA0B92BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="1">
-        <v>1.2E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB97ED-F8EA-407A-BD63-80CFA0B92BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28551199-BDFA-41D0-854F-F80511F6EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>mpConsume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,7 +480,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,10 +527,10 @@
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -563,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>21</v>
@@ -598,13 +594,13 @@
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -647,13 +643,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="1">
         <v>70</v>
@@ -662,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28551199-BDFA-41D0-854F-F80511F6EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D77B8F-BFA7-4FEC-97F8-2C3B6D0F7FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>launchInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发射间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +132,14 @@
   </si>
   <si>
     <t>recoilForceDis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击间隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,98 +509,98 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -608,10 +608,10 @@
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>0.9</v>
@@ -661,7 +661,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D77B8F-BFA7-4FEC-97F8-2C3B6D0F7FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF44593B-2857-4B87-BDF6-8D74062B33F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>攻击间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -491,7 +495,7 @@
     <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
@@ -673,6 +677,38 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF44593B-2857-4B87-BDF6-8D74062B33F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC40219-A302-46BF-A933-067ED1A5F8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,14 @@
   </si>
   <si>
     <t>长剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,12 +201,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,77 +492,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -560,152 +576,167 @@
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>35</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>5</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>70</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
+      <c r="B6" s="3">
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.15</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/武器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC40219-A302-46BF-A933-067ED1A5F8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B30D1E2-90EC-49EA-B970-E98B73EDE088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>武器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect/blueSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +499,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,6 +734,9 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
